--- a/medicine/Enfance/Agnès_Laroche/Agnès_Laroche.xlsx
+++ b/medicine/Enfance/Agnès_Laroche/Agnès_Laroche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Laroche</t>
+          <t>Agnès_Laroche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agnès Laroche, née le 1er décembre 1965 à Paris[1] et morte le 6 février 2023[2],[3] à Soyaux, est une romancière française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès Laroche, née le 1er décembre 1965 à Paris et morte le 6 février 2023, à Soyaux, est une romancière française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Laroche</t>
+          <t>Agnès_Laroche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agnès Laroche est l’autrice de nombreuses fictions diffusées à la radio, de romans pour la jeunesse et de récits publiés en presse enfantine[1]. Elle a sorti son premier livre à 43 ans[4]. 
-Avant de devenir autrice, Agnès Laroche a travaillé pendant 20 ans en insertion professionnelle[4]. Depuis, elle a écrit une quarantaine d'ouvrages[4].  
-Pour inventer ses histoires, Agnès Laroche note ses idées dans de petits carnets : elle imagine d'abord son personnage principal, puis les problèmes qu'il rencontre et comment il va les résoudre[4]. L'autrice travaille principalement chez elle, dans sa maison d'Angoulême. Elle met 15 jours à un mois pour rédiger un album, et 4 à 5 mois pour un roman[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès Laroche est l’autrice de nombreuses fictions diffusées à la radio, de romans pour la jeunesse et de récits publiés en presse enfantine. Elle a sorti son premier livre à 43 ans. 
+Avant de devenir autrice, Agnès Laroche a travaillé pendant 20 ans en insertion professionnelle. Depuis, elle a écrit une quarantaine d'ouvrages.  
+Pour inventer ses histoires, Agnès Laroche note ses idées dans de petits carnets : elle imagine d'abord son personnage principal, puis les problèmes qu'il rencontre et comment il va les résoudre. L'autrice travaille principalement chez elle, dans sa maison d'Angoulême. Elle met 15 jours à un mois pour rédiger un album, et 4 à 5 mois pour un roman.
 Son plus grand plaisir est de faire en sorte que ses livres soient autant de petites maisons dans lesquelles les lecteurs se sentent chez eux, de la première à la dernière page.
-En 2015, elle a obtenu le Prix des Incorruptibles (niveau CE2/CM1) pour son roman jeunesse Rue des petits singes[5]. C'est cette même année qu'elle remporte le prix Mon ami pour son roman Le fantôme de Sarah Fisher. Elle est mariée et a trois enfants[6], deux garçons et une fille[4].
+En 2015, elle a obtenu le Prix des Incorruptibles (niveau CE2/CM1) pour son roman jeunesse Rue des petits singes. C'est cette même année qu'elle remporte le prix Mon ami pour son roman Le fantôme de Sarah Fisher. Elle est mariée et a trois enfants, deux garçons et une fille.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Laroche</t>
+          <t>Agnès_Laroche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tim Sans-dragon, Rageot Éditeur, 2008.
